--- a/distributions/distribution_f8_random_2p.xlsx
+++ b/distributions/distribution_f8_random_2p.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A628"/>
+  <dimension ref="A1:A557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,27 +452,27 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0</v>
+        <v>0.00273972602739726</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0</v>
+        <v>0.00273972602739726</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0</v>
+        <v>0.00273972602739726</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.005479452054794521</v>
+        <v>0.00273972602739726</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.005479452054794521</v>
+        <v>0.00273972602739726</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -517,32 +517,32 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.00821917808219178</v>
+        <v>0.01095890410958904</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.00821917808219178</v>
+        <v>0.01095890410958904</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.00821917808219178</v>
+        <v>0.01095890410958904</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.01095890410958904</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.01095890410958904</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.01095890410958904</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -552,217 +552,217 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.0136986301369863</v>
+        <v>0.02465753424657534</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.0136986301369863</v>
+        <v>0.03013698630136986</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.01643835616438356</v>
+        <v>0.03835616438356165</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.01643835616438356</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.01643835616438356</v>
+        <v>0.04383561643835616</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.01917808219178082</v>
+        <v>0.04383561643835616</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.01917808219178082</v>
+        <v>0.04383561643835616</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.01917808219178082</v>
+        <v>0.04657534246575343</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.01917808219178082</v>
+        <v>0.04657534246575343</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.02465753424657534</v>
+        <v>0.05205479452054795</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.0273972602739726</v>
+        <v>0.0547945205479452</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.0273972602739726</v>
+        <v>0.05753424657534247</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.03287671232876712</v>
+        <v>0.06027397260273973</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.03561643835616438</v>
+        <v>0.06575342465753424</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.03561643835616438</v>
+        <v>0.0684931506849315</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.03835616438356165</v>
+        <v>0.07397260273972603</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.0410958904109589</v>
+        <v>0.07945205479452055</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.04383561643835616</v>
+        <v>0.0821917808219178</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.04383561643835616</v>
+        <v>0.0821917808219178</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.04383561643835616</v>
+        <v>0.08493150684931507</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.04657534246575343</v>
+        <v>0.08493150684931507</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.0547945205479452</v>
+        <v>0.08493150684931507</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.06301369863013699</v>
+        <v>0.08493150684931507</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.07397260273972603</v>
+        <v>0.09315068493150686</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.07671232876712329</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.0821917808219178</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.08767123287671233</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.08767123287671233</v>
+        <v>0.09863013698630137</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.09041095890410959</v>
+        <v>0.1013698630136986</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.09041095890410959</v>
+        <v>0.1041095890410959</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.0958904109589041</v>
+        <v>0.1041095890410959</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.0958904109589041</v>
+        <v>0.1123287671232877</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.09863013698630137</v>
+        <v>0.1150684931506849</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.09863013698630137</v>
+        <v>0.1178082191780822</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.1013698630136986</v>
+        <v>0.126027397260274</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.1041095890410959</v>
+        <v>0.1315068493150685</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.1041095890410959</v>
+        <v>0.1342465753424658</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.1068493150684932</v>
+        <v>0.1397260273972603</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.1178082191780822</v>
+        <v>0.1452054794520548</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.1205479452054795</v>
+        <v>0.1479452054794521</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.1397260273972603</v>
+        <v>0.1506849315068493</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.1424657534246575</v>
+        <v>0.1561643835616438</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.1534246575342466</v>
+        <v>0.1561643835616438</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -772,37 +772,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.1616438356164384</v>
+        <v>0.1643835616438356</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.1643835616438356</v>
+        <v>0.1671232876712329</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.1643835616438356</v>
+        <v>0.1698630136986301</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.1671232876712329</v>
+        <v>0.1726027397260274</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.1726027397260274</v>
+        <v>0.1753424657534247</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.1780821917808219</v>
+        <v>0.1808219178082192</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.1835616438356164</v>
+        <v>0.1808219178082192</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -817,77 +817,77 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.2027397260273973</v>
+        <v>0.210958904109589</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.2082191780821918</v>
+        <v>0.210958904109589</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.2136986301369863</v>
+        <v>0.2164383561643836</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.2191780821917808</v>
+        <v>0.2273972602739726</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.2219178082191781</v>
+        <v>0.2383561643835616</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.2246575342465753</v>
+        <v>0.2438356164383562</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.2328767123287671</v>
+        <v>0.2465753424657534</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.2356164383561644</v>
+        <v>0.2493150684931507</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.2383561643835616</v>
+        <v>0.252054794520548</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.2410958904109589</v>
+        <v>0.2575342465753425</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.2493150684931507</v>
+        <v>0.263013698630137</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.2602739726027397</v>
+        <v>0.2657534246575343</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.263013698630137</v>
+        <v>0.2657534246575343</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.263013698630137</v>
+        <v>0.2712328767123288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.2684931506849315</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -897,222 +897,222 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.2794520547945206</v>
+        <v>0.2849315068493151</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.2821917808219178</v>
+        <v>0.2849315068493151</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.2849315068493151</v>
+        <v>0.2876712328767123</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.2931506849315069</v>
+        <v>0.2904109589041096</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.2958904109589041</v>
+        <v>0.2986301369863014</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.3041095890410959</v>
+        <v>0.2986301369863014</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.3095890410958904</v>
+        <v>0.3013698630136986</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.3095890410958904</v>
+        <v>0.3068493150684932</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.3150684931506849</v>
+        <v>0.3068493150684932</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.3178082191780822</v>
+        <v>0.3068493150684932</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.3232876712328767</v>
+        <v>0.3068493150684932</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.326027397260274</v>
+        <v>0.3068493150684932</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.336986301369863</v>
+        <v>0.3150684931506849</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.3424657534246575</v>
+        <v>0.3150684931506849</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.3452054794520548</v>
+        <v>0.3178082191780822</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.3506849315068493</v>
+        <v>0.3287671232876712</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.3589041095890411</v>
+        <v>0.3315068493150685</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.3643835616438356</v>
+        <v>0.3397260273972603</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.3643835616438356</v>
+        <v>0.3479452054794521</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.3698630136986301</v>
+        <v>0.3479452054794521</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.3698630136986301</v>
+        <v>0.3506849315068493</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.3808219178082192</v>
+        <v>0.3561643835616438</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.3835616438356164</v>
+        <v>0.3589041095890411</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.3835616438356164</v>
+        <v>0.3616438356164384</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.389041095890411</v>
+        <v>0.3616438356164384</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.389041095890411</v>
+        <v>0.3671232876712329</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.389041095890411</v>
+        <v>0.3808219178082192</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.4</v>
+        <v>0.3863013698630137</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.4054794520547945</v>
+        <v>0.3917808219178082</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.4054794520547945</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.4164383561643836</v>
+        <v>0.4027397260273973</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.4191780821917808</v>
+        <v>0.4027397260273973</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.4191780821917808</v>
+        <v>0.4082191780821918</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.4328767123287671</v>
+        <v>0.410958904109589</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.4410958904109589</v>
+        <v>0.4164383561643836</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.4493150684931507</v>
+        <v>0.4191780821917808</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.4547945205479452</v>
+        <v>0.4219178082191781</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.4575342465753425</v>
+        <v>0.4356164383561644</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>0.463013698630137</v>
+        <v>0.4438356164383562</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>0.4684931506849315</v>
+        <v>0.4520547945205479</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>0.4712328767123288</v>
+        <v>0.4575342465753425</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>0.473972602739726</v>
+        <v>0.4657534246575342</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>0.4767123287671233</v>
+        <v>0.4684931506849315</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>0.4767123287671233</v>
+        <v>0.473972602739726</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -1122,17 +1122,17 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>0.4821917808219178</v>
+        <v>0.4794520547945205</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>0.4849315068493151</v>
+        <v>0.4876712328767123</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>0.4931506849315068</v>
+        <v>0.4904109589041096</v>
       </c>
     </row>
     <row r="152" spans="1:1">
@@ -1142,1322 +1142,1322 @@
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>0.5041095890410959</v>
+        <v>0.4986301369863014</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>0.5123287671232877</v>
+        <v>0.5095890410958904</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>0.5178082191780822</v>
+        <v>0.5150684931506849</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>0.5232876712328767</v>
+        <v>0.5178082191780822</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>0.5260273972602739</v>
+        <v>0.5232876712328767</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0.5342465753424658</v>
+        <v>0.5232876712328767</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0.5424657534246575</v>
+        <v>0.5232876712328767</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>0.547945205479452</v>
+        <v>0.5232876712328767</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>0.5506849315068493</v>
+        <v>0.5232876712328767</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>0.5561643835616439</v>
+        <v>0.5315068493150685</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>0.5643835616438356</v>
+        <v>0.5424657534246575</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>0.5753424657534246</v>
+        <v>0.5452054794520548</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>0.5808219178082191</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>0.589041095890411</v>
+        <v>0.5534246575342465</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>0.5917808219178082</v>
+        <v>0.5561643835616439</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>0.6</v>
+        <v>0.5753424657534246</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0.6027397260273972</v>
+        <v>0.5753424657534246</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>0.6136986301369863</v>
+        <v>0.5780821917808219</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>0.6136986301369863</v>
+        <v>0.5780821917808219</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0.6273972602739726</v>
+        <v>0.5780821917808219</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>0.6301369863013698</v>
+        <v>0.5863013698630137</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>0.6438356164383562</v>
+        <v>0.589041095890411</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>0.6493150684931507</v>
+        <v>0.5945205479452055</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>0.6520547945205479</v>
+        <v>0.5972602739726027</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>0.6602739726027397</v>
+        <v>0.5972602739726027</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0.663013698630137</v>
+        <v>0.6027397260273972</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0.6684931506849315</v>
+        <v>0.6082191780821918</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>0.6794520547945205</v>
+        <v>0.6164383561643836</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0.6876712328767123</v>
+        <v>0.6219178082191781</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0.6958904109589041</v>
+        <v>0.6301369863013698</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0.6986301369863014</v>
+        <v>0.6356164383561644</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0.7013698630136986</v>
+        <v>0.6383561643835617</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>0.7068493150684931</v>
+        <v>0.6410958904109589</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>0.7123287671232876</v>
+        <v>0.6465753424657534</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>0.7150684931506849</v>
+        <v>0.6520547945205479</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>0.7205479452054795</v>
+        <v>0.6575342465753424</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>0.726027397260274</v>
+        <v>0.6602739726027397</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>0.7315068493150685</v>
+        <v>0.663013698630137</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>0.736986301369863</v>
+        <v>0.6684931506849315</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>0.736986301369863</v>
+        <v>0.6767123287671233</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>0.7424657534246575</v>
+        <v>0.6821917808219178</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.7424657534246575</v>
+        <v>0.684931506849315</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>0.7479452054794521</v>
+        <v>0.6876712328767123</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0.7479452054794521</v>
+        <v>0.6904109589041096</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>0.7506849315068493</v>
+        <v>0.6904109589041096</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>0.7561643835616438</v>
+        <v>0.7013698630136986</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>0.7589041095890411</v>
+        <v>0.7041095890410959</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>0.7616438356164383</v>
+        <v>0.7041095890410959</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>0.7643835616438356</v>
+        <v>0.7095890410958904</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0.7671232876712328</v>
+        <v>0.7123287671232876</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>0.7753424657534247</v>
+        <v>0.7123287671232876</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>0.7780821917808219</v>
+        <v>0.7178082191780822</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>0.7808219178082192</v>
+        <v>0.7287671232876712</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>0.7863013698630137</v>
+        <v>0.7315068493150685</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>0.7863013698630137</v>
+        <v>0.7397260273972602</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>0.7863013698630137</v>
+        <v>0.7452054794520548</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>0.7863013698630137</v>
+        <v>0.7506849315068493</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>0.7917808219178082</v>
+        <v>0.7534246575342466</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>0.8</v>
+        <v>0.7534246575342466</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>0.8027397260273973</v>
+        <v>0.7561643835616438</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>0.8082191780821918</v>
+        <v>0.7561643835616438</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>0.810958904109589</v>
+        <v>0.7616438356164383</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>0.8164383561643835</v>
+        <v>0.7726027397260274</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>0.8191780821917808</v>
+        <v>0.7726027397260274</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>0.8191780821917808</v>
+        <v>0.7753424657534247</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>0.821917808219178</v>
+        <v>0.7808219178082192</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>0.8301369863013699</v>
+        <v>0.7835616438356164</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>0.8328767123287671</v>
+        <v>0.7835616438356164</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>0.8356164383561644</v>
+        <v>0.7890410958904109</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>0.8410958904109589</v>
+        <v>0.7917808219178082</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>0.852054794520548</v>
+        <v>0.7972602739726027</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>0.852054794520548</v>
+        <v>0.8027397260273973</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>0.8602739726027397</v>
+        <v>0.8054794520547945</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>0.8602739726027397</v>
+        <v>0.8082191780821918</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>0.8602739726027397</v>
+        <v>0.8136986301369863</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>0.8602739726027397</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>0.8684931506849315</v>
+        <v>0.8246575342465754</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>0.8684931506849315</v>
+        <v>0.8301369863013699</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>0.8712328767123287</v>
+        <v>0.8328767123287671</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>0.8712328767123287</v>
+        <v>0.8356164383561644</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>0.8712328767123287</v>
+        <v>0.8356164383561644</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>0.8712328767123287</v>
+        <v>0.8383561643835616</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>0.8712328767123287</v>
+        <v>0.8438356164383561</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>0.8712328767123287</v>
+        <v>0.8438356164383561</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>0.8712328767123287</v>
+        <v>0.8465753424657534</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>0.8712328767123287</v>
+        <v>0.8465753424657534</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>0.8712328767123287</v>
+        <v>0.8465753424657534</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>0.8712328767123287</v>
+        <v>0.852054794520548</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>0.8712328767123287</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>0.873972602739726</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>0.873972602739726</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>0.8767123287671232</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>0.8767123287671232</v>
+        <v>0.8575342465753425</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>0.8794520547945206</v>
+        <v>0.8602739726027397</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>0.8794520547945206</v>
+        <v>0.863013698630137</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>0.8821917808219178</v>
+        <v>0.8657534246575342</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>0.8821917808219178</v>
+        <v>0.8657534246575342</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>0.8849315068493151</v>
+        <v>0.8657534246575342</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>0.8876712328767123</v>
+        <v>0.8657534246575342</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>0.8876712328767123</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>0.8876712328767123</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>0.8904109589041096</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>0.8931506849315068</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>0.8931506849315068</v>
+        <v>0.8767123287671232</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>0.8958904109589041</v>
+        <v>0.8794520547945206</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>0.8958904109589041</v>
+        <v>0.8794520547945206</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>0.8958904109589041</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>0.8958904109589041</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>0.8986301369863013</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>0.9013698630136986</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>0.9041095890410958</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>0.9041095890410958</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>0.9041095890410958</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>0.9068493150684932</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>0.9095890410958904</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>0.9150684931506849</v>
+        <v>0.8876712328767123</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>0.9150684931506849</v>
+        <v>0.8876712328767123</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>0.9178082191780822</v>
+        <v>0.8876712328767123</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>0.9178082191780822</v>
+        <v>0.8904109589041096</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>0.9178082191780822</v>
+        <v>0.8904109589041096</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>0.9232876712328767</v>
+        <v>0.8931506849315068</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>0.9232876712328767</v>
+        <v>0.8931506849315068</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>0.9260273972602739</v>
+        <v>0.8958904109589041</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>0.9260273972602739</v>
+        <v>0.8958904109589041</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>0.9342465753424658</v>
+        <v>0.8986301369863013</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>0.9369863013698631</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>0.9397260273972603</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>0.9397260273972603</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>0.9397260273972603</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>0.9397260273972603</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>0.9397260273972603</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>0.9424657534246575</v>
+        <v>0.9068493150684932</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>0.9424657534246575</v>
+        <v>0.9068493150684932</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>0.9424657534246575</v>
+        <v>0.9068493150684932</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>0.9424657534246575</v>
+        <v>0.9123287671232877</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>0.9424657534246575</v>
+        <v>0.9123287671232877</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>0.9424657534246575</v>
+        <v>0.9123287671232877</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>0.9424657534246575</v>
+        <v>0.9150684931506849</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>0.9424657534246575</v>
+        <v>0.9150684931506849</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>0.9424657534246575</v>
+        <v>0.9150684931506849</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>0.9424657534246575</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>0.9424657534246575</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>0.9424657534246575</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>0.9424657534246575</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>0.9452054794520548</v>
+        <v>0.9232876712328767</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>0.9452054794520548</v>
+        <v>0.9232876712328767</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>0.9452054794520548</v>
+        <v>0.9260273972602739</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>0.9452054794520548</v>
+        <v>0.9260273972602739</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>0.947945205479452</v>
+        <v>0.9260273972602739</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>0.947945205479452</v>
+        <v>0.9260273972602739</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>0.947945205479452</v>
+        <v>0.9260273972602739</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>0.947945205479452</v>
+        <v>0.9287671232876712</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>0.947945205479452</v>
+        <v>0.9287671232876712</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>0.947945205479452</v>
+        <v>0.9287671232876712</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>0.947945205479452</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>0.947945205479452</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>0.9506849315068493</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>0.9506849315068493</v>
+        <v>0.9369863013698631</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>0.9506849315068493</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>0.9506849315068493</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>0.9506849315068493</v>
+        <v>0.9424657534246575</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>0.9506849315068493</v>
+        <v>0.9424657534246575</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>0.9506849315068493</v>
+        <v>0.9424657534246575</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>0.9506849315068493</v>
+        <v>0.9424657534246575</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>0.9534246575342465</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>0.9561643835616438</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>0.9561643835616438</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>0.9561643835616438</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>0.9561643835616438</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>0.958904109589041</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>0.9643835616438357</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>0.9643835616438357</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>0.9643835616438357</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>0.9698630136986301</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>0.9698630136986301</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>0.9698630136986301</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>0.9698630136986301</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>0.9698630136986301</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>0.9726027397260274</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>0.9726027397260274</v>
+        <v>0.9561643835616438</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>0.9726027397260274</v>
+        <v>0.9561643835616438</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>0.9726027397260274</v>
+        <v>0.9561643835616438</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>0.9726027397260274</v>
+        <v>0.9561643835616438</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>0.9726027397260274</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>0.9726027397260274</v>
+        <v>0.9616438356164384</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>0.9726027397260274</v>
+        <v>0.9643835616438357</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>0.9726027397260274</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>0.9726027397260274</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>0.9726027397260274</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>0.9726027397260274</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="417" spans="1:1">
@@ -2742,72 +2742,72 @@
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>0.9753424657534246</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>0.9780821917808219</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>0.9780821917808219</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>0.9780821917808219</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>0.9780821917808219</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>0.9780821917808219</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>0.9780821917808219</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>0.9780821917808219</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="487" spans="1:1">
@@ -2852,32 +2852,32 @@
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>0.9808219178082191</v>
+        <v>0.9780821917808219</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -2907,17 +2907,17 @@
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>0.9808219178082191</v>
+        <v>0.9835616438356164</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>0.9808219178082191</v>
+        <v>0.9835616438356164</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>0.9808219178082191</v>
+        <v>0.9835616438356164</v>
       </c>
     </row>
     <row r="509" spans="1:1">
@@ -2937,52 +2937,52 @@
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>0.9835616438356164</v>
+        <v>0.9863013698630136</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>0.9835616438356164</v>
+        <v>0.9863013698630136</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>0.9835616438356164</v>
+        <v>0.9863013698630136</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>0.9835616438356164</v>
+        <v>0.9863013698630136</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>0.9863013698630136</v>
+        <v>0.989041095890411</v>
       </c>
     </row>
     <row r="522" spans="1:1">
@@ -2992,37 +2992,37 @@
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>0.989041095890411</v>
+        <v>0.9917808219178083</v>
       </c>
     </row>
     <row r="530" spans="1:1">
@@ -3032,7 +3032,7 @@
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>0.9917808219178083</v>
+        <v>0.9945205479452055</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -3077,17 +3077,17 @@
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>0.9945205479452055</v>
+        <v>0.9972602739726028</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>0.9945205479452055</v>
+        <v>0.9972602739726028</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>0.9945205479452055</v>
+        <v>0.9972602739726028</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -3162,361 +3162,6 @@
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1">
-      <c r="A570">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1">
-      <c r="A574">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1">
-      <c r="A576">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1">
-      <c r="A586">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1">
-      <c r="A588">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1">
-      <c r="A590">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1">
-      <c r="A591">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1">
-      <c r="A592">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1">
-      <c r="A597">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1">
-      <c r="A603">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1">
-      <c r="A604">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1">
-      <c r="A605">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1">
-      <c r="A606">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1">
-      <c r="A607">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1">
-      <c r="A608">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1">
-      <c r="A610">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1">
-      <c r="A611">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1">
-      <c r="A612">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1">
-      <c r="A613">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1">
-      <c r="A615">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1">
-      <c r="A618">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1">
-      <c r="A619">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1">
-      <c r="A620">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1">
-      <c r="A621">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1">
-      <c r="A622">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1">
-      <c r="A623">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1">
-      <c r="A624">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1">
-      <c r="A625">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1">
-      <c r="A626">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627">
-        <v>0.9972602739726028</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1">
-      <c r="A628">
         <v>1</v>
       </c>
     </row>
